--- a/biology/Histoire de la zoologie et de la botanique/Victor_Samuel_Summerhayes/Victor_Samuel_Summerhayes.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Victor_Samuel_Summerhayes/Victor_Samuel_Summerhayes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Victor Samuel Summerhayes est un botaniste britannique, né le 21 février 1897 à Street, Somerset et mort le 27 décembre 1974.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il obtient un Bachelor of Sciences en 1920 à Londres. Il est responsable de l’herbier des orchidées des Jardins botaniques royaux de Kew de 1924 à 1964.
 Il fait paraître Wild Orchids of Britain (1951, réédité en 1968). Il révise la seconde édition de Flora West Tropical Africa en 1968 et contribue à la partie sur les orchidées de la Flora Tropical East Africa (1968) et au Kew Bulletin.
@@ -544,7 +558,9 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Ray Desmond (1994). Dictionary of British and Irish Botanists and Horticulturists including Plant Collectors, Flower Painters and Garden Designers. Taylor &amp; Francis et The Natural History Museum (Londres).</t>
         </is>
